--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>24.18</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>89.93000000000001</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>7.32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>1.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>1.48</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>4.88</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.85</v>
+        <v>2.78</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.5</v>
+        <v>2.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.66</v>
+        <v>3.57</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>147.17</v>
+        <v>14.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.32</v>
+        <v>2.83</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.17</v>
+        <v>1.92</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.84</v>
+        <v>3.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.51</v>
-      </c>
       <c r="W4" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
+      <c r="Y5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>38.46</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.52</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.83</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>32.32</v>
+        <v>3.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>26.42</v>
+        <v>2.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>11.37</v>
+        <v>1.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>41.45</v>
+        <v>4.14</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>13.85</v>
+        <v>1.39</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>16.42</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>170.05</v>
+        <v>17.01</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>32.46</v>
+        <v>3.25</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>21.76</v>
+        <v>2.18</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>37.57</v>
+        <v>3.76</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>17.71</v>
+        <v>1.77</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>27.07</v>
+        <v>2.71</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>89.97</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>3.47</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA8" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="AB8" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>32.76</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>2.04</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>15.64</v>
+        <v>1.56</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.65</v>
+        <v>0.87</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Y9" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="Z9" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AG9" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>78.48</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>3.05</v>
-      </c>
       <c r="AH9" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.6</v>
+        <v>0.86</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>25.05</v>
+        <v>2.51</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>33.35</v>
+        <v>3.34</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.28</v>
+        <v>0.73</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.82</v>
+        <v>0.48</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40008.59027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40008.59722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.67</v>
+        <v>66.67</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.45</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40008.60416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>13.64</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.4</v>
+        <v>83.98</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.01</v>
+        <v>20.05</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40008.61111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3</v>
+        <v>29.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.49</v>
+        <v>24.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.03</v>
+        <v>40.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.84</v>
+        <v>158.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.64</v>
+        <v>36.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,36 +445,36 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>40008.59027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
@@ -759,13 +759,13 @@
         <v>40008.59722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.83</v>
+        <v>5.835</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.11</v>
+        <v>5.112</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>12.87</v>
@@ -774,88 +774,88 @@
         <v>10.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.99</v>
+        <v>4.993</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.52</v>
+        <v>16.517</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.4</v>
+        <v>7.396</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>5.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.8</v>
+        <v>6.801</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.48</v>
+        <v>5.476</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.258</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.45</v>
+        <v>4.448</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.97</v>
+        <v>6.972</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.96</v>
+        <v>3.957</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>66.67</v>
+        <v>66.669</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.56</v>
+        <v>13.561</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4</v>
+        <v>3.995</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.352</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.705</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.99</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.81</v>
+        <v>3.814</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.72</v>
+        <v>3.717</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.45</v>
+        <v>6.453</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>14.79</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.641</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.4</v>
+        <v>5.402</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40008.60416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.42</v>
+        <v>7.419</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.034</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.47</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.25</v>
+        <v>16.253</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.64</v>
+        <v>13.642</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.084</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>22.22</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.145</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.733</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.6</v>
+        <v>7.602</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>1.72</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.71</v>
+        <v>5.711</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.595000000000001</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.94</v>
+        <v>4.942</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.98</v>
+        <v>83.977</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.74</v>
+        <v>16.736</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.18</v>
+        <v>5.182</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.11</v>
+        <v>11.114</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.33</v>
+        <v>6.331</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.42</v>
+        <v>11.416</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.78</v>
+        <v>4.778</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.99</v>
+        <v>4.987</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.81</v>
+        <v>4.815</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.52</v>
+        <v>7.522</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.05</v>
+        <v>20.053</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.26</v>
+        <v>3.257</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40008.61805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -465,17 +465,17 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>40008.61111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.73</v>
+        <v>13.731</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.65</v>
+        <v>10.653</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.96</v>
+        <v>29.961</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>24.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.98</v>
+        <v>10.983</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.25</v>
+        <v>40.252</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.82</v>
+        <v>16.822</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.558</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.68</v>
+        <v>11.677</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.83</v>
+        <v>12.829</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.72</v>
+        <v>12.717</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.34</v>
+        <v>3.341</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.67</v>
+        <v>10.672</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.59</v>
+        <v>15.586</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.01</v>
+        <v>9.007999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.104</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>158.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.38</v>
+        <v>30.375</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.77</v>
+        <v>9.775</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.43</v>
+        <v>20.428</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.11</v>
+        <v>11.111</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.25</v>
+        <v>20.252</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>8.789999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.31</v>
+        <v>8.305999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9</v>
+        <v>8.997</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.13</v>
+        <v>13.133</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.36</v>
+        <v>36.361</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.83</v>
+        <v>5.827</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.44</v>
+        <v>12.444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40008.61805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>95.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.76</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_33.xlsx
+++ b/DATA_goal/Junction_Flooding_33.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
@@ -465,17 +465,17 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>40008.61111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.731</v>
+        <v>13.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.653</v>
+        <v>10.65</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.628</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.961</v>
+        <v>29.96</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>24.92</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.983</v>
+        <v>10.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.252</v>
+        <v>40.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.822</v>
+        <v>16.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.558</v>
+        <v>7.56</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.677</v>
+        <v>11.68</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.829</v>
+        <v>12.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.717</v>
+        <v>12.72</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.341</v>
+        <v>3.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.672</v>
+        <v>10.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.586</v>
+        <v>15.59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.007999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>158.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.375</v>
+        <v>30.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.775</v>
+        <v>9.77</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.428</v>
+        <v>20.43</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.111</v>
+        <v>11.11</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.447</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.252</v>
+        <v>20.25</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>8.789999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.305999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.997</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.133</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.361</v>
+        <v>36.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.827</v>
+        <v>5.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.444</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40008.61805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>95.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.7</v>
+        <v>12.44</v>
       </c>
     </row>
   </sheetData>
